--- a/Assets/Data/Table/Convert/Setting_Setting.xlsx
+++ b/Assets/Data/Table/Convert/Setting_Setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFD207B-7105-4FCA-85A3-AA2FD876D417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1E6F2B-C388-4561-93C2-D8A067DC7027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Option" sheetId="1" r:id="rId1"/>
@@ -507,11 +507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum.Setting.
-OptionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tb.String
 UI[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -589,6 +584,10 @@
   <si>
     <t>Q</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Em.Setting.
+OptionType</t>
   </si>
 </sst>
 </file>
@@ -1118,28 +1117,28 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="36.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="17.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="101.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="95.4" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
@@ -1163,12 +1162,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>4</v>
@@ -1180,7 +1179,7 @@
         <v>140</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -1192,9 +1191,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>34</v>
@@ -1215,13 +1214,13 @@
         <v>31</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I3" s="25"/>
     </row>
-    <row r="4" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>33</v>
@@ -1248,7 +1247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="25" t="s">
         <v>95</v>
       </c>
@@ -1275,9 +1274,9 @@
       </c>
       <c r="I5" s="25"/>
     </row>
-    <row r="6" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>33</v>
@@ -1302,7 +1301,7 @@
       </c>
       <c r="I6" s="25"/>
     </row>
-    <row r="7" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="25" t="s">
         <v>96</v>
       </c>
@@ -1329,7 +1328,7 @@
       </c>
       <c r="I7" s="25"/>
     </row>
-    <row r="8" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25" t="s">
         <v>97</v>
       </c>
@@ -1356,7 +1355,7 @@
       </c>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="25" t="s">
         <v>98</v>
       </c>
@@ -1383,7 +1382,7 @@
       </c>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25" t="s">
         <v>99</v>
       </c>
@@ -1406,11 +1405,11 @@
         <v>31</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="25" t="s">
         <v>100</v>
       </c>
@@ -1437,7 +1436,7 @@
       </c>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="25" t="s">
         <v>101</v>
       </c>
@@ -1464,7 +1463,7 @@
       </c>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
         <v>102</v>
       </c>
@@ -1491,7 +1490,7 @@
       </c>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="25" t="s">
         <v>103</v>
       </c>
@@ -1514,46 +1513,46 @@
         <v>31</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>163</v>
-      </c>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>31</v>
@@ -1568,11 +1567,11 @@
         <v>31</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="25" t="s">
         <v>104</v>
       </c>
@@ -1599,7 +1598,7 @@
       </c>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="25" t="s">
         <v>105</v>
       </c>
@@ -1626,7 +1625,7 @@
       </c>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25" t="s">
         <v>106</v>
       </c>
@@ -1653,7 +1652,7 @@
       </c>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25" t="s">
         <v>107</v>
       </c>
@@ -1680,7 +1679,7 @@
       </c>
       <c r="I20" s="25"/>
     </row>
-    <row r="21" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25" t="s">
         <v>108</v>
       </c>
@@ -1707,7 +1706,7 @@
       </c>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25" t="s">
         <v>109</v>
       </c>
@@ -1734,7 +1733,7 @@
       </c>
       <c r="I22" s="25"/>
     </row>
-    <row r="23" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
         <v>110</v>
       </c>
@@ -1761,7 +1760,7 @@
       </c>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25" t="s">
         <v>111</v>
       </c>
@@ -1788,7 +1787,7 @@
       </c>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25" t="s">
         <v>112</v>
       </c>
@@ -1815,7 +1814,7 @@
       </c>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="25" t="s">
         <v>113</v>
       </c>
@@ -1842,7 +1841,7 @@
       </c>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25" t="s">
         <v>114</v>
       </c>
@@ -1869,7 +1868,7 @@
       </c>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25" t="s">
         <v>115</v>
       </c>
@@ -1896,7 +1895,7 @@
       </c>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25" t="s">
         <v>116</v>
       </c>
@@ -1923,7 +1922,7 @@
       </c>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19" t="s">
         <v>117</v>
       </c>
@@ -1951,7 +1950,7 @@
       </c>
       <c r="I30" s="19"/>
     </row>
-    <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="19" t="s">
         <v>118</v>
       </c>
@@ -1981,7 +1980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="15" t="s">
         <v>119</v>
       </c>
@@ -2004,11 +2003,11 @@
         <v>64</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="15" t="s">
         <v>120</v>
       </c>
@@ -2035,7 +2034,7 @@
       </c>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="15" t="s">
         <v>121</v>
       </c>
@@ -2058,11 +2057,11 @@
         <v>31</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>122</v>
       </c>
@@ -2089,7 +2088,7 @@
       </c>
       <c r="I35" s="15"/>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="15" t="s">
         <v>123</v>
       </c>
@@ -2116,7 +2115,7 @@
       </c>
       <c r="I36" s="15"/>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
         <v>124</v>
       </c>
@@ -2143,7 +2142,7 @@
       </c>
       <c r="I37" s="15"/>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="15" t="s">
         <v>125</v>
       </c>
@@ -2166,38 +2165,38 @@
         <v>31</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I38" s="15"/>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>160</v>
-      </c>
       <c r="I39" s="15"/>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="15" t="s">
         <v>128</v>
       </c>
@@ -2205,7 +2204,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>31</v>
@@ -2220,11 +2219,11 @@
         <v>31</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="15" t="s">
         <v>126</v>
       </c>
@@ -2251,7 +2250,7 @@
       </c>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="15" t="s">
         <v>127</v>
       </c>
@@ -2278,7 +2277,7 @@
       </c>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="19" t="s">
         <v>129</v>
       </c>
@@ -2305,7 +2304,7 @@
       </c>
       <c r="I43" s="19"/>
     </row>
-    <row r="44" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="19" t="s">
         <v>130</v>
       </c>
@@ -2332,7 +2331,7 @@
       </c>
       <c r="I44" s="19"/>
     </row>
-    <row r="45" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="19" t="s">
         <v>131</v>
       </c>
@@ -2359,7 +2358,7 @@
       </c>
       <c r="I45" s="19"/>
     </row>
-    <row r="46" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="19" t="s">
         <v>132</v>
       </c>
@@ -2386,7 +2385,7 @@
       </c>
       <c r="I46" s="19"/>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="15" t="s">
         <v>133</v>
       </c>
@@ -2413,7 +2412,7 @@
       </c>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="15" t="s">
         <v>134</v>
       </c>
@@ -2440,7 +2439,7 @@
       </c>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="15" t="s">
         <v>135</v>
       </c>
@@ -2467,7 +2466,7 @@
       </c>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="15" t="s">
         <v>136</v>
       </c>
@@ -2494,7 +2493,7 @@
       </c>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="15" t="s">
         <v>137</v>
       </c>
@@ -2521,7 +2520,7 @@
       </c>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="15" t="s">
         <v>138</v>
       </c>
@@ -2548,7 +2547,7 @@
       </c>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="15" t="s">
         <v>139</v>
       </c>
@@ -2575,7 +2574,7 @@
       </c>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="29" t="s">
         <v>65</v>
       </c>
@@ -2602,7 +2601,7 @@
       </c>
       <c r="I54" s="29"/>
     </row>
-    <row r="55" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="29" t="s">
         <v>66</v>
       </c>
@@ -2629,7 +2628,7 @@
       </c>
       <c r="I55" s="29"/>
     </row>
-    <row r="56" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="29" t="s">
         <v>67</v>
       </c>
@@ -2656,7 +2655,7 @@
       </c>
       <c r="I56" s="29"/>
     </row>
-    <row r="57" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="12" t="s">
         <v>73</v>
       </c>
@@ -2684,7 +2683,7 @@
       </c>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="12" t="s">
         <v>78</v>
       </c>
@@ -2712,7 +2711,7 @@
       </c>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="12" t="s">
         <v>83</v>
       </c>
@@ -2740,7 +2739,7 @@
       </c>
       <c r="I59" s="12"/>
     </row>
-    <row r="60" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="22" t="s">
         <v>91</v>
       </c>
@@ -2768,7 +2767,7 @@
       </c>
       <c r="I60" s="22"/>
     </row>
-    <row r="61" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="22" t="s">
         <v>92</v>
       </c>
@@ -2796,7 +2795,7 @@
       </c>
       <c r="I61" s="22"/>
     </row>
-    <row r="62" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="22" t="s">
         <v>89</v>
       </c>
@@ -2824,7 +2823,7 @@
       </c>
       <c r="I62" s="22"/>
     </row>
-    <row r="63" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="22" t="s">
         <v>90</v>
       </c>
